--- a/static/output/Excel/frequency1-sol.xlsx
+++ b/static/output/Excel/frequency1-sol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adolphus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-Tutorials/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E017D62-B792-4E0F-99E4-8ABE31F2599E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F102A5EA-C0C8-CC4E-A278-80AE7D1706BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4880" yWindow="500" windowWidth="23900" windowHeight="25640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LRcounts1" sheetId="3" r:id="rId1"/>
@@ -98,33 +98,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Airal"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Airal"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Airal"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Airal"/>
     </font>
     <font>
       <sz val="12"/>
@@ -135,6 +115,18 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -199,62 +191,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -275,7 +250,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -743,52 +718,52 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>9.2773186432174207E-2</c:v>
+                  <c:v>9.2776810950701616E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1018857098862168</c:v>
+                  <c:v>0.1018896904182796</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1309197316866028E-2</c:v>
+                  <c:v>9.1312764639388047E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11043025792319858</c:v>
+                  <c:v>0.11043457227879228</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10146903162640528</c:v>
+                  <c:v>0.10147299587943173</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.1545070673884343E-2</c:v>
+                  <c:v>9.1548647211648224E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.5333038757032917E-2</c:v>
+                  <c:v>9.5337880913771766E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.7226815977718276E-2</c:v>
+                  <c:v>9.7229691776929278E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.4199584336922553E-2</c:v>
+                  <c:v>8.4188982416732824E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10503441610853555</c:v>
+                  <c:v>0.10495926879733071</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.5388482165810334E-2</c:v>
+                  <c:v>9.5145328215535646E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.4632496893869669E-2</c:v>
+                  <c:v>9.439127001907674E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.9480483731164859E-2</c:v>
+                  <c:v>9.9226898895288962E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.5772866606746892E-2</c:v>
+                  <c:v>8.555422373846476E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.2035395092272834E-2</c:v>
+                  <c:v>9.1800788467094815E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.17420874179038018</c:v>
+                  <c:v>0.17376466780181335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1124,7 +1099,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1290,19 +1265,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>9.6208951036593715E-2</c:v>
+                  <c:v>9.6139763573595563E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10443429238371953</c:v>
+                  <c:v>0.104359189769439</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.6149946135334272E-2</c:v>
+                  <c:v>9.6080801104972371E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10048064007652545</c:v>
+                  <c:v>0.10040838068181818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9451961696485541E-2</c:v>
+                  <c:v>9.9380442062960483E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9.8839907192575405E-2</c:v>
@@ -1592,52 +1567,52 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>9.6208951036593715E-2</c:v>
+                  <c:v>9.6207858969528798E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10443429238371953</c:v>
+                  <c:v>0.1044331069508681</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.6149946135334272E-2</c:v>
+                  <c:v>9.6148854738033543E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10048064007652545</c:v>
+                  <c:v>0.10047949952155101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9451961696485541E-2</c:v>
+                  <c:v>9.9450832818031534E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.8911037827470211E-2</c:v>
+                  <c:v>9.8909915089038875E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10055771319602741</c:v>
+                  <c:v>0.10055621552339387</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6907347038765981E-2</c:v>
+                  <c:v>9.6906535968075219E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1053900101154128</c:v>
+                  <c:v>0.10539426414346784</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.5643318976463942E-2</c:v>
+                  <c:v>9.5665245850726374E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.8201917634684444E-2</c:v>
+                  <c:v>9.828382388171833E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.7877219508335264E-2</c:v>
+                  <c:v>9.7958854937796644E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.276640735104788E-2</c:v>
+                  <c:v>9.2843780058831524E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.0491754774090785E-2</c:v>
+                  <c:v>9.0567230286174236E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.5497135947691826E-2</c:v>
+                  <c:v>6.5551764459294851E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.1464744730607017E-2</c:v>
+                  <c:v>4.1499328796854446E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1870,7 +1845,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2011,19 +1986,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>9.9318223696333155E-2</c:v>
+                  <c:v>9.9410355629261107E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19803104143210479</c:v>
+                  <c:v>0.19801298445799725</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9899780980062941E-2</c:v>
+                  <c:v>9.9940393403536665E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20413856188236776</c:v>
+                  <c:v>0.20401854714064915</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10225287410332369</c:v>
+                  <c:v>0.10219275879653238</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.19926732864166585</c:v>
@@ -2162,13 +2137,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>9.9361300008119088E-2</c:v>
+                  <c:v>9.9410355629261107E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.19805606076978319</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9884125387883688E-2</c:v>
+                  <c:v>9.9940393403536665E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.20406162345243509</c:v>
@@ -2313,7 +2288,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>9.9345886269687558E-2</c:v>
+                  <c:v>9.9410355629261107E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.19804862387878727</c:v>
@@ -2464,52 +2439,52 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>9.9318223696333155E-2</c:v>
+                  <c:v>9.9410355629261107E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19803104143210479</c:v>
+                  <c:v>0.19803017006429433</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9899780980062941E-2</c:v>
+                  <c:v>9.9940393403536665E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20413856188236776</c:v>
+                  <c:v>0.2041376636405042</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10225287410332369</c:v>
+                  <c:v>0.10225242417455305</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.19938454845974149</c:v>
+                  <c:v>0.19938367113628669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.9468496096252787E-2</c:v>
+                  <c:v>9.9467919473011646E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.20509214971465525</c:v>
+                  <c:v>0.20509149232464571</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.9363121731048984E-2</c:v>
+                  <c:v>9.9364741660844316E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.19914166407258768</c:v>
+                  <c:v>0.19916009116736999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.8380721970887541E-2</c:v>
+                  <c:v>9.8414055048444582E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.21918717054413117</c:v>
+                  <c:v>0.21926143492041228</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.10162103156364463</c:v>
+                  <c:v>0.10165546251371979</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.16269464544472143</c:v>
+                  <c:v>0.16274976918366216</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.1855113650141081E-2</c:v>
+                  <c:v>5.18726830528696E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.43782086630014561</c:v>
+                  <c:v>0.43796920752594781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2615,19 +2590,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>9.9349277561634794E-2</c:v>
+                  <c:v>9.9410355629261107E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.19804406704747146</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9917863481779473E-2</c:v>
+                  <c:v>9.9940393403536665E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20404535134191928</c:v>
+                  <c:v>0.20404072694569139</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10222471144377437</c:v>
+                  <c:v>0.10220095110648901</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.19937316413147535</c:v>
@@ -2636,10 +2611,10 @@
                   <c:v>9.9854291137689941E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.20477554339577092</c:v>
+                  <c:v>0.20474235186236217</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.9240122854015511E-2</c:v>
+                  <c:v>9.9077114768141572E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.19987387778650234</c:v>
@@ -2648,10 +2623,10 @@
                   <c:v>0.1039087369575771</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.20696395562157352</c:v>
+                  <c:v>0.20691913639022155</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.6181432576190065E-2</c:v>
+                  <c:v>9.6172964654499551E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.18221818695261624</c:v>
@@ -2660,7 +2635,7 @@
                   <c:v>0.11846905663592197</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.20099136555970062</c:v>
+                  <c:v>0.20094783972697425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4950,45 +4925,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C369C31-FA83-4A65-8AF4-E251A0063086}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="16" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="11"/>
@@ -4999,628 +4974,628 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>0</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="19">
         <v>2148</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="20">
         <v>199.0918730262095</v>
       </c>
-      <c r="D3" s="6">
-        <v>199.2768044563102</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="D3" s="20">
+        <v>199.28458992210707</v>
+      </c>
+      <c r="F3" s="2">
         <f t="shared" ref="F3:F18" si="0">C3/$B3</f>
         <v>9.2687091725423415E-2</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="2">
         <f t="shared" ref="G3:G18" si="1">D3/$B3</f>
-        <v>9.2773186432174207E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>9.2776810950701616E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="19">
         <v>2064</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="20">
         <v>210.08828022630186</v>
       </c>
-      <c r="D4" s="6">
-        <v>210.29210520515147</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="D4" s="20">
+        <v>210.30032102332908</v>
+      </c>
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
         <v>0.10178695747398346</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="2">
         <f t="shared" si="1"/>
-        <v>0.1018857098862168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.1018896904182796</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="19">
         <v>1996</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="20">
         <v>182.08537176923377</v>
       </c>
-      <c r="D5" s="6">
-        <v>182.2531578444646</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="D5" s="20">
+        <v>182.26027822021854</v>
+      </c>
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
         <v>9.1225136156930745E-2</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="2">
         <f t="shared" si="1"/>
-        <v>9.1309197316866028E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>9.1312764639388047E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="19">
         <v>2131</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="20">
         <v>235.09114591194248</v>
       </c>
-      <c r="D6" s="6">
-        <v>235.32687963433617</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="D6" s="20">
+        <v>235.33607352610633</v>
+      </c>
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>0.11031963674891716</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="2">
         <f t="shared" si="1"/>
-        <v>0.11043025792319858</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.11043457227879228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="19">
         <v>2033</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="20">
         <v>206.08695431205024</v>
       </c>
-      <c r="D7" s="6">
-        <v>206.28654129648191</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="D7" s="20">
+        <v>206.2946006228847</v>
+      </c>
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
         <v>0.10137085799904094</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="2">
         <f t="shared" si="1"/>
-        <v>0.10146903162640528</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.10147299587943173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="19">
         <v>2144</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="20">
         <v>196.227097513074</v>
       </c>
-      <c r="D8" s="6">
-        <v>196.27263152480802</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="D8" s="20">
+        <v>196.28029962177379</v>
+      </c>
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>9.1523832795277052E-2</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="2">
         <f t="shared" si="1"/>
-        <v>9.1545070673884343E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>9.1548647211648224E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="19">
         <v>2073</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="20">
         <v>197.54377689667243</v>
       </c>
-      <c r="D9" s="6">
-        <v>197.62538934332923</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="D9" s="20">
+        <v>197.63542713424889</v>
+      </c>
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>9.5293669511178208E-2</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="2">
         <f t="shared" si="1"/>
-        <v>9.5333038757032917E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>9.5337880913771766E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="19">
         <v>1958</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="20">
         <v>190.27194399622206</v>
       </c>
-      <c r="D10" s="6">
-        <v>190.37010568437239</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="D10" s="20">
+        <v>190.37573649922751</v>
+      </c>
+      <c r="F10" s="2">
         <f t="shared" si="0"/>
         <v>9.7176682326977556E-2</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="2">
         <f t="shared" si="1"/>
-        <v>9.7226815977718276E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>9.7229691776929278E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="19">
         <v>2137</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="20">
         <v>180.43790345858179</v>
       </c>
-      <c r="D11" s="6">
-        <v>179.93451172800349</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="D11" s="20">
+        <v>179.91185542455804</v>
+      </c>
+      <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>8.4435144341872617E-2</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="2">
         <f t="shared" si="1"/>
-        <v>8.4199584336922553E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>8.4188982416732824E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="19">
         <v>1858</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="20">
         <v>195.06623992824788</v>
       </c>
-      <c r="D12" s="6">
-        <v>195.15394512965904</v>
-      </c>
-      <c r="F12" s="7">
+      <c r="D12" s="20">
+        <v>195.01432142544047</v>
+      </c>
+      <c r="F12" s="2">
         <f t="shared" si="0"/>
         <v>0.10498721201735624</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="2">
         <f t="shared" si="1"/>
-        <v>0.10503441610853555</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.10495926879733071</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="19">
         <v>2076</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="20">
         <v>197.67704063941977</v>
       </c>
-      <c r="D13" s="6">
-        <v>198.02648897622225</v>
-      </c>
-      <c r="F13" s="7">
+      <c r="D13" s="20">
+        <v>197.52170137545201</v>
+      </c>
+      <c r="F13" s="2">
         <f t="shared" si="0"/>
         <v>9.5220154450587555E-2</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>9.5388482165810334E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>9.5145328215535646E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="19">
         <v>2027</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="20">
         <v>191.9903194823755</v>
       </c>
-      <c r="D14" s="6">
-        <v>191.82007120387382</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="D14" s="20">
+        <v>191.33110432866854</v>
+      </c>
+      <c r="F14" s="2">
         <f t="shared" si="0"/>
         <v>9.4716487164467442E-2</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="2">
         <f t="shared" si="1"/>
-        <v>9.4632496893869669E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>9.439127001907674E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="19">
         <v>2016</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="20">
         <v>198.37089538870973</v>
       </c>
-      <c r="D15" s="6">
-        <v>200.55265520202835</v>
-      </c>
-      <c r="F15" s="7">
+      <c r="D15" s="20">
+        <v>200.04142817290256</v>
+      </c>
+      <c r="F15" s="2">
         <f t="shared" si="0"/>
         <v>9.8398261601542525E-2</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>9.9480483731164859E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>9.9226898895288962E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="19">
         <v>2014</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="20">
         <v>183.99269033851604</v>
       </c>
-      <c r="D16" s="6">
-        <v>172.74655334598825</v>
-      </c>
-      <c r="F16" s="7">
+      <c r="D16" s="20">
+        <v>172.30620660926803</v>
+      </c>
+      <c r="F16" s="2">
         <f t="shared" si="0"/>
         <v>9.1356847238587904E-2</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="2">
         <f t="shared" si="1"/>
-        <v>8.5772866606746892E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>8.555422373846476E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="19">
         <v>1809</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="20">
         <v>172.74596678319969</v>
       </c>
-      <c r="D17" s="6">
-        <v>166.49202972192157</v>
-      </c>
-      <c r="F17" s="7">
+      <c r="D17" s="20">
+        <v>166.06762633697451</v>
+      </c>
+      <c r="F17" s="2">
         <f t="shared" si="0"/>
         <v>9.5492518951464725E-2</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="2">
         <f t="shared" si="1"/>
-        <v>9.2035395092272834E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>9.1800788467094815E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="19">
         <v>1879</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="20">
         <v>183.31521870259888</v>
       </c>
-      <c r="D18" s="6">
-        <v>327.33822582412438</v>
-      </c>
-      <c r="F18" s="7">
+      <c r="D18" s="20">
+        <v>326.50381079960727</v>
+      </c>
+      <c r="F18" s="2">
         <f t="shared" si="0"/>
         <v>9.75599886655662E-2</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="2">
         <f t="shared" si="1"/>
-        <v>0.17420874179038018</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="C24" s="2" t="s">
+        <v>0.17376466780181335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>0</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="21">
         <v>2148</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="20">
         <v>199</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="2">
         <f>C27/B27</f>
         <v>9.2644320297951582E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>1</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="19">
         <v>2064</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="20">
         <v>210</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="2">
         <f t="shared" ref="D28:D42" si="2">C28/B28</f>
         <v>0.10174418604651163</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>2</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="19">
         <v>1996</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="20">
         <v>182</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="2">
         <f t="shared" si="2"/>
         <v>9.1182364729458912E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>3</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="19">
         <v>2131</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="20">
         <v>235</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="2">
         <f t="shared" si="2"/>
         <v>0.11027686532144533</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>4</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="19">
         <v>2033</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="20">
         <v>206</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="2">
         <f t="shared" si="2"/>
         <v>0.10132808657156911</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>5</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="19">
         <v>2144</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="20">
         <v>196</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="2">
         <f t="shared" si="2"/>
         <v>9.1417910447761194E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>6</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="19">
         <v>2073</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="20">
         <v>197</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="2">
         <f t="shared" si="2"/>
         <v>9.5031355523396047E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>7</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="19">
         <v>1958</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="20">
         <v>189</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="2">
         <f t="shared" si="2"/>
         <v>9.6527068437180799E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>8</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="19">
         <v>2137</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="20">
         <v>177</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="2">
         <f t="shared" si="2"/>
         <v>8.2826392138511937E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>9</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="19">
         <v>1858</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="20">
         <v>188</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="2">
         <f t="shared" si="2"/>
         <v>0.10118406889128095</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>10</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="19">
         <v>2076</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="20">
         <v>182</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="2">
         <f t="shared" si="2"/>
         <v>8.7668593448940263E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>11</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="19">
         <v>2027</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="20">
         <v>161</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="2">
         <f t="shared" si="2"/>
         <v>7.9427725703009378E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>12</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="19">
         <v>2016</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="20">
         <v>139</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="2">
         <f t="shared" si="2"/>
         <v>6.8948412698412703E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>13</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="19">
         <v>2014</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="20">
         <v>82</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="2">
         <f t="shared" si="2"/>
         <v>4.0714995034756701E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>14</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="19">
         <v>1809</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="20">
         <v>33</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="2">
         <f t="shared" si="2"/>
         <v>1.824212271973466E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>15</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="19">
         <v>1879</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="20">
         <v>5</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="2">
         <f t="shared" si="2"/>
         <v>2.6609898882384245E-3</v>
       </c>
@@ -5635,677 +5610,677 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F314293-315D-4B01-B372-B51468F229F9}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="16"/>
-    <col min="2" max="2" width="12.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="15" style="16" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="26"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="20">
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>0</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="4">
         <v>9559</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="3">
         <v>919.34795196294897</v>
       </c>
-      <c r="D3" s="18">
-        <v>919.66136295879926</v>
-      </c>
-      <c r="F3" s="17">
-        <f>C3/$B3</f>
+      <c r="D3" s="3">
+        <v>919.65092388972573</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F18" si="0">C3/$B3</f>
         <v>9.6176164030018718E-2</v>
       </c>
-      <c r="G3" s="17">
-        <f>D3/$B3</f>
-        <v>9.6208951036593715E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="20">
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G18" si="1">D3/$B3</f>
+        <v>9.6207858969528798E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="4">
         <v>10713</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="3">
         <v>1118.3899580896614</v>
       </c>
-      <c r="D4" s="18">
-        <v>1118.8045743067873</v>
-      </c>
-      <c r="F4" s="17">
-        <f>C4/$B4</f>
+      <c r="D4" s="3">
+        <v>1118.7918747646499</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
         <v>0.10439559022586216</v>
       </c>
-      <c r="G4" s="17">
-        <f>D4/$B4</f>
-        <v>0.10443429238371953</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="20">
+      <c r="G4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1044331069508681</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="4">
         <v>11584</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="3">
         <v>1113.4216628872059</v>
       </c>
-      <c r="D5" s="18">
-        <v>1113.8009760317123</v>
-      </c>
-      <c r="F5" s="17">
-        <f>C5/$B5</f>
+      <c r="D5" s="3">
+        <v>1113.7883332853805</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
         <v>9.611720156139554E-2</v>
       </c>
-      <c r="G5" s="17">
-        <f>D5/$B5</f>
-        <v>9.6149946135334272E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="20">
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>9.6148854738033543E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="4">
         <v>11264</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="3">
         <v>1131.4100147411505</v>
       </c>
-      <c r="D6" s="18">
-        <v>1131.8139298219826</v>
-      </c>
-      <c r="F6" s="17">
-        <f>C6/$B6</f>
+      <c r="D6" s="3">
+        <v>1131.8010826107507</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
         <v>0.10044478113824135</v>
       </c>
-      <c r="G6" s="17">
-        <f>D6/$B6</f>
-        <v>0.10048064007652545</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="20">
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10047949952155101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="4">
         <v>11944</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="3">
         <v>1187.4347670515183</v>
       </c>
-      <c r="D7" s="18">
-        <v>1187.8542305028234</v>
-      </c>
-      <c r="F7" s="17">
-        <f>C7/$B7</f>
+      <c r="D7" s="3">
+        <v>1187.8407471785686</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
         <v>9.9416842519383652E-2</v>
       </c>
-      <c r="G7" s="17">
-        <f>D7/$B7</f>
-        <v>9.9451961696485541E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="20">
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>9.9450832818031534E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="4">
         <v>12930</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="3">
         <v>1279.0380429125671</v>
       </c>
-      <c r="D8" s="18">
-        <v>1278.9197191091898</v>
-      </c>
-      <c r="F8" s="17">
-        <f>C8/$B8</f>
+      <c r="D8" s="3">
+        <v>1278.9052021012726</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
         <v>9.8920188933686551E-2</v>
       </c>
-      <c r="G8" s="17">
-        <f>D8/$B8</f>
-        <v>9.8911037827470211E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="20">
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>9.8909915089038875E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="4">
         <v>13786</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="3">
         <v>1386.4409844356408</v>
       </c>
-      <c r="D9" s="18">
-        <v>1386.2886341204339</v>
-      </c>
-      <c r="F9" s="17">
-        <f>C9/$B9</f>
+      <c r="D9" s="3">
+        <v>1386.267987205508</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
         <v>0.10056876428519083</v>
       </c>
-      <c r="G9" s="17">
-        <f>D9/$B9</f>
-        <v>0.10055771319602741</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="20">
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10055621552339387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="4">
         <v>14626</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="3">
         <v>1417.7116588354472</v>
       </c>
-      <c r="D10" s="18">
-        <v>1417.3668577889912</v>
-      </c>
-      <c r="F10" s="17">
-        <f>C10/$B10</f>
+      <c r="D10" s="3">
+        <v>1417.3549950690681</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
         <v>9.6930921566761058E-2</v>
       </c>
-      <c r="G10" s="17">
-        <f>D10/$B10</f>
-        <v>9.6907347038765981E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="20">
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>9.6906535968075219E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="4">
         <v>13716</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="3">
         <v>1444.8133785106922</v>
       </c>
-      <c r="D11" s="18">
-        <v>1445.5293787430019</v>
-      </c>
-      <c r="F11" s="17">
-        <f>C11/$B11</f>
+      <c r="D11" s="3">
+        <v>1445.5877269918049</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
         <v>0.10533780829036835</v>
       </c>
-      <c r="G11" s="17">
-        <f>D11/$B11</f>
-        <v>0.1053900101154128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="20">
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.10539426414346784</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="4">
         <v>15626</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="3">
         <v>1492.9242029323473</v>
       </c>
-      <c r="D12" s="18">
-        <v>1494.5225023262255</v>
-      </c>
-      <c r="F12" s="17">
-        <f>C12/$B12</f>
+      <c r="D12" s="3">
+        <v>1494.8651316634503</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
         <v>9.5541034361471086E-2</v>
       </c>
-      <c r="G12" s="17">
-        <f>D12/$B12</f>
-        <v>9.5643318976463942E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="20">
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>9.5665245850726374E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="4">
         <v>14623</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="3">
         <v>1437.0439933464118</v>
       </c>
-      <c r="D13" s="18">
-        <v>1436.0066415719907</v>
-      </c>
-      <c r="F13" s="17">
-        <f>C13/$B13</f>
+      <c r="D13" s="3">
+        <v>1437.2043566223672</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
         <v>9.8272857371702924E-2</v>
       </c>
-      <c r="G13" s="17">
-        <f>D13/$B13</f>
-        <v>9.8201917634684444E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="20">
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>9.828382388171833E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="4">
         <v>16471</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="3">
         <v>1614.7998223168695</v>
       </c>
-      <c r="D14" s="18">
-        <v>1612.1356825217902</v>
-      </c>
-      <c r="F14" s="17">
-        <f>C14/$B14</f>
+      <c r="D14" s="3">
+        <v>1613.4802996804485</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
         <v>9.8038966809353992E-2</v>
       </c>
-      <c r="G14" s="17">
-        <f>D14/$B14</f>
-        <v>9.7877219508335264E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="20">
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>9.7958854937796644E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="4">
         <v>15906</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="3">
         <v>1493.6811028373359</v>
       </c>
-      <c r="D15" s="18">
-        <v>1475.5424753257676</v>
-      </c>
-      <c r="F15" s="17">
-        <f>C15/$B15</f>
+      <c r="D15" s="3">
+        <v>1476.7731656157741</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
         <v>9.3906771208181555E-2</v>
       </c>
-      <c r="G15" s="17">
-        <f>D15/$B15</f>
-        <v>9.276640735104788E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="20">
+      <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>9.2843780058831524E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="4">
         <v>17055</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="3">
         <v>1591.1030979181764</v>
       </c>
-      <c r="D16" s="18">
-        <v>1543.3368776721184</v>
-      </c>
-      <c r="F16" s="17">
-        <f>C16/$B16</f>
+      <c r="D16" s="3">
+        <v>1544.6241125307015</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
         <v>9.3292471293941748E-2</v>
       </c>
-      <c r="G16" s="17">
-        <f>D16/$B16</f>
-        <v>9.0491754774090785E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="20">
+      <c r="G16" s="2">
+        <f t="shared" si="1"/>
+        <v>9.0567230286174236E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="4">
         <v>16893</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="3">
         <v>1477.124984256177</v>
       </c>
-      <c r="D17" s="18">
-        <v>1106.4431175643581</v>
-      </c>
-      <c r="F17" s="17">
-        <f>C17/$B17</f>
+      <c r="D17" s="3">
+        <v>1107.365957010868</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
         <v>8.7440062999832882E-2</v>
       </c>
-      <c r="G17" s="17">
-        <f>D17/$B17</f>
-        <v>6.5497135947691826E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="20">
+      <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>6.5551764459294851E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="4">
         <v>17743</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="3">
         <v>1598.244212189039</v>
       </c>
-      <c r="D18" s="18">
-        <v>735.70896575516031</v>
-      </c>
-      <c r="F18" s="17">
-        <f>C18/$B18</f>
+      <c r="D18" s="3">
+        <v>736.3225908425884</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
         <v>9.007745094905252E-2</v>
       </c>
-      <c r="G18" s="17">
-        <f>D18/$B18</f>
-        <v>4.1464744730607017E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="C22" s="24" t="s">
+      <c r="G18" s="2">
+        <f t="shared" si="1"/>
+        <v>4.1499328796854446E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="25" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="23" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="20">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
         <v>0</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="6">
         <v>9559</v>
       </c>
-      <c r="C25" s="18">
-        <v>919.66136295879926</v>
-      </c>
-      <c r="D25" s="17">
-        <f>C25/B25</f>
-        <v>9.6208951036593715E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="20">
+      <c r="C25" s="3">
+        <v>919</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:D40" si="2">C25/B25</f>
+        <v>9.6139763573595563E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
         <v>1</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="4">
         <v>10713</v>
       </c>
-      <c r="C26" s="18">
-        <v>1118.8045743067873</v>
-      </c>
-      <c r="D26" s="17">
-        <f>C26/B26</f>
-        <v>0.10443429238371953</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="20">
+      <c r="C26" s="3">
+        <v>1118</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="2"/>
+        <v>0.104359189769439</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
         <v>2</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="4">
         <v>11584</v>
       </c>
-      <c r="C27" s="18">
-        <v>1113.8009760317123</v>
-      </c>
-      <c r="D27" s="17">
-        <f>C27/B27</f>
-        <v>9.6149946135334272E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="20">
+      <c r="C27" s="3">
+        <v>1113</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="2"/>
+        <v>9.6080801104972371E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
         <v>3</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="4">
         <v>11264</v>
       </c>
-      <c r="C28" s="18">
-        <v>1131.8139298219826</v>
-      </c>
-      <c r="D28" s="17">
-        <f>C28/B28</f>
-        <v>0.10048064007652545</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="20">
+      <c r="C28" s="3">
+        <v>1131</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10040838068181818</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
         <v>4</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="4">
         <v>11944</v>
       </c>
-      <c r="C29" s="18">
-        <v>1187.8542305028234</v>
-      </c>
-      <c r="D29" s="17">
-        <f>C29/B29</f>
-        <v>9.9451961696485541E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="20">
+      <c r="C29" s="3">
+        <v>1187</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="2"/>
+        <v>9.9380442062960483E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
         <v>5</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="4">
         <v>12930</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="3">
         <v>1278</v>
       </c>
-      <c r="D30" s="17">
-        <f>C30/B30</f>
+      <c r="D30" s="2">
+        <f t="shared" si="2"/>
         <v>9.8839907192575405E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="20">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
         <v>6</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="4">
         <v>13786</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="3">
         <v>1384</v>
       </c>
-      <c r="D31" s="17">
-        <f>C31/B31</f>
+      <c r="D31" s="2">
+        <f t="shared" si="2"/>
         <v>0.10039170172638909</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="20">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
         <v>7</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="4">
         <v>14626</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="3">
         <v>1412</v>
       </c>
-      <c r="D32" s="17">
-        <f>C32/B32</f>
+      <c r="D32" s="2">
+        <f t="shared" si="2"/>
         <v>9.6540407493504718E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="20">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
         <v>8</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="4">
         <v>13716</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="3">
         <v>1433</v>
       </c>
-      <c r="D33" s="17">
-        <f>C33/B33</f>
+      <c r="D33" s="2">
+        <f t="shared" si="2"/>
         <v>0.10447652376786234</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="20">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
         <v>9</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="4">
         <v>15626</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="3">
         <v>1465</v>
       </c>
-      <c r="D34" s="17">
-        <f>C34/B34</f>
+      <c r="D34" s="2">
+        <f t="shared" si="2"/>
         <v>9.3753999744016381E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="20">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
         <v>10</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="4">
         <v>14623</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="3">
         <v>1372</v>
       </c>
-      <c r="D35" s="17">
-        <f>C35/B35</f>
+      <c r="D35" s="2">
+        <f t="shared" si="2"/>
         <v>9.382479655337482E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="20">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
         <v>11</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="4">
         <v>16471</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="3">
         <v>1449</v>
       </c>
-      <c r="D36" s="17">
-        <f>C36/B36</f>
+      <c r="D36" s="2">
+        <f t="shared" si="2"/>
         <v>8.7972800679983004E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="20">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
         <v>12</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="4">
         <v>15906</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="3">
         <v>1147</v>
       </c>
-      <c r="D37" s="17">
-        <f>C37/B37</f>
+      <c r="D37" s="2">
+        <f t="shared" si="2"/>
         <v>7.2111153024016092E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="20">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
         <v>13</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="4">
         <v>17055</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="3">
         <v>838</v>
       </c>
-      <c r="D38" s="17">
-        <f>C38/B38</f>
+      <c r="D38" s="2">
+        <f t="shared" si="2"/>
         <v>4.9135150982116682E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="20">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
         <v>14</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B39" s="4">
         <v>16893</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="3">
         <v>277</v>
       </c>
-      <c r="D39" s="17">
-        <f>C39/B39</f>
+      <c r="D39" s="2">
+        <f t="shared" si="2"/>
         <v>1.6397324335523589E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="20">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
         <v>15</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B40" s="4">
         <v>17743</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="3">
         <v>16</v>
       </c>
-      <c r="D40" s="17">
-        <f>C40/B40</f>
+      <c r="D40" s="2">
+        <f t="shared" si="2"/>
         <v>9.0176407597362344E-4</v>
       </c>
     </row>
@@ -6319,920 +6294,920 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77028927-E704-4354-9DE7-8E2C04357CB8}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="16"/>
-    <col min="2" max="2" width="11.140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="18" style="16" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="18" style="16" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="16" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="16" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="16" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="B3" s="29"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="16">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="14"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>0</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="14">
         <v>10854</v>
       </c>
-      <c r="C4" s="18">
-        <v>1078.4675502881246</v>
-      </c>
-      <c r="D4" s="18">
-        <v>1078.3002495711887</v>
-      </c>
-      <c r="E4" s="18">
-        <v>1078</v>
-      </c>
-      <c r="F4" s="18">
-        <v>1078.3370586539841</v>
-      </c>
-      <c r="H4" s="17">
-        <f>C4/$B4</f>
-        <v>9.9361300008119088E-2</v>
-      </c>
-      <c r="I4" s="17">
-        <f>D4/$B4</f>
-        <v>9.9345886269687558E-2</v>
-      </c>
-      <c r="J4" s="17">
-        <f>E4/$B4</f>
-        <v>9.9318223696333155E-2</v>
-      </c>
-      <c r="K4" s="17">
-        <f>F4/$B4</f>
-        <v>9.9349277561634794E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="16">
+      <c r="C4" s="3">
+        <v>1079</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1079</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1079</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1079</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" ref="H4:H19" si="0">C4/$B4</f>
+        <v>9.9410355629261107E-2</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" ref="I4:I19" si="1">D4/$B4</f>
+        <v>9.9410355629261107E-2</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J19" si="2">E4/$B4</f>
+        <v>9.9410355629261107E-2</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4:K19" si="3">F4/$B4</f>
+        <v>9.9410355629261107E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="14">
         <v>10166</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="3">
         <v>2013.4379137856158</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="3">
         <v>2013.3623103517514</v>
       </c>
-      <c r="E5" s="18">
-        <v>2013.1835671987772</v>
-      </c>
-      <c r="F5" s="18">
+      <c r="E5" s="3">
+        <v>2013.1747088736161</v>
+      </c>
+      <c r="F5" s="3">
         <v>2013.315985604595</v>
       </c>
-      <c r="H5" s="17">
-        <f>C5/$B5</f>
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
         <v>0.19805606076978319</v>
       </c>
-      <c r="I5" s="17">
-        <f>D5/$B5</f>
+      <c r="I5" s="2">
+        <f t="shared" si="1"/>
         <v>0.19804862387878727</v>
       </c>
-      <c r="J5" s="17">
-        <f>E5/$B5</f>
-        <v>0.19803104143210479</v>
-      </c>
-      <c r="K5" s="17">
-        <f>F5/$B5</f>
+      <c r="J5" s="2">
+        <f t="shared" si="2"/>
+        <v>0.19803017006429433</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="3"/>
         <v>0.19804406704747146</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="16">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="14">
         <v>10066</v>
       </c>
-      <c r="C6" s="18">
-        <v>1005.4336061544371</v>
-      </c>
-      <c r="D6" s="18">
+      <c r="C6" s="3">
+        <v>1006</v>
+      </c>
+      <c r="D6" s="3">
         <v>1007.189829916374</v>
       </c>
-      <c r="E6" s="18">
-        <v>1005.5911953453136</v>
-      </c>
-      <c r="F6" s="18">
-        <v>1005.7732138075921</v>
-      </c>
-      <c r="H6" s="17">
-        <f>C6/$B6</f>
-        <v>9.9884125387883688E-2</v>
-      </c>
-      <c r="I6" s="17">
-        <f>D6/$B6</f>
+      <c r="E6" s="3">
+        <v>1006</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1006</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9940393403536665E-2</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="1"/>
         <v>0.10005859625634553</v>
       </c>
-      <c r="J6" s="17">
-        <f>E6/$B6</f>
-        <v>9.9899780980062941E-2</v>
-      </c>
-      <c r="K6" s="17">
-        <f>F6/$B6</f>
-        <v>9.9917863481779473E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="16">
+      <c r="J6" s="2">
+        <f t="shared" si="2"/>
+        <v>9.9940393403536665E-2</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="3"/>
+        <v>9.9940393403536665E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="14">
         <v>10352</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="3">
         <v>2112.4459259796081</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="3">
         <v>2113.6575325167878</v>
       </c>
-      <c r="E7" s="18">
-        <v>2113.2423926062711</v>
-      </c>
-      <c r="F7" s="18">
-        <v>2112.2774770915485</v>
-      </c>
-      <c r="H7" s="17">
-        <f>C7/$B7</f>
+      <c r="E7" s="3">
+        <v>2113.2330940064994</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2112.2296053417972</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
         <v>0.20406162345243509</v>
       </c>
-      <c r="I7" s="17">
-        <f>D7/$B7</f>
+      <c r="I7" s="2">
+        <f t="shared" si="1"/>
         <v>0.20417866426939604</v>
       </c>
-      <c r="J7" s="17">
-        <f>E7/$B7</f>
-        <v>0.20413856188236776</v>
-      </c>
-      <c r="K7" s="17">
-        <f>F7/$B7</f>
-        <v>0.20404535134191928</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="16">
+      <c r="J7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.2041376636405042</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="3"/>
+        <v>0.20404072694569139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="14">
         <v>9805</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="3">
         <v>1002.4223632370611</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="3">
         <v>1002.2712315317399</v>
       </c>
-      <c r="E8" s="18">
-        <v>1002.5894305830888</v>
-      </c>
-      <c r="F8" s="18">
-        <v>1002.3132957062078</v>
-      </c>
-      <c r="H8" s="17">
-        <f>C8/$B8</f>
+      <c r="E8" s="3">
+        <v>1002.5850190314926</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1002.0803255991248</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
         <v>0.10223583510831831</v>
       </c>
-      <c r="I8" s="17">
-        <f>D8/$B8</f>
+      <c r="I8" s="2">
+        <f t="shared" si="1"/>
         <v>0.10222042136988678</v>
       </c>
-      <c r="J8" s="17">
-        <f>E8/$B8</f>
-        <v>0.10225287410332369</v>
-      </c>
-      <c r="K8" s="17">
-        <f>F8/$B8</f>
-        <v>0.10222471144377437</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="16">
+      <c r="J8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10225242417455305</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="3"/>
+        <v>0.10220095110648901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="14">
         <v>10373</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="3">
         <v>2067.9993413366042</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="3">
         <v>2067.9278861228286</v>
       </c>
-      <c r="E9" s="18">
-        <v>2068.2159211728986</v>
-      </c>
-      <c r="F9" s="18">
+      <c r="E9" s="3">
+        <v>2068.2068206967019</v>
+      </c>
+      <c r="F9" s="3">
         <v>2068.0978315357938</v>
       </c>
-      <c r="H9" s="17">
-        <f>C9/$B9</f>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
         <v>0.19936366926989341</v>
       </c>
-      <c r="I9" s="17">
-        <f>D9/$B9</f>
+      <c r="I9" s="2">
+        <f t="shared" si="1"/>
         <v>0.1993567806924543</v>
       </c>
-      <c r="J9" s="17">
-        <f>E9/$B9</f>
-        <v>0.19938454845974149</v>
-      </c>
-      <c r="K9" s="17">
-        <f>F9/$B9</f>
+      <c r="J9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.19938367113628669</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="3"/>
         <v>0.19937316413147535</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="16">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="14">
         <v>8396</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="3">
         <v>835.80905956289257</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="3">
         <v>839.96319350259193</v>
       </c>
-      <c r="E10" s="18">
-        <v>835.13749322413844</v>
-      </c>
-      <c r="F10" s="18">
+      <c r="E10" s="3">
+        <v>835.13265189540573</v>
+      </c>
+      <c r="F10" s="3">
         <v>838.37662839204472</v>
       </c>
-      <c r="H10" s="17">
-        <f>C10/$B10</f>
+      <c r="H10" s="2">
+        <f t="shared" si="0"/>
         <v>9.9548482558705645E-2</v>
       </c>
-      <c r="I10" s="17">
-        <f>D10/$B10</f>
+      <c r="I10" s="2">
+        <f t="shared" si="1"/>
         <v>0.10004325792074702</v>
       </c>
-      <c r="J10" s="17">
-        <f>E10/$B10</f>
-        <v>9.9468496096252787E-2</v>
-      </c>
-      <c r="K10" s="17">
-        <f>F10/$B10</f>
+      <c r="J10" s="2">
+        <f t="shared" si="2"/>
+        <v>9.9467919473011646E-2</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="3"/>
         <v>9.9854291137689941E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="16">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="14">
         <v>8638</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="3">
         <v>1770.1625992170768</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="3">
         <v>1770.4092861033394</v>
       </c>
-      <c r="E11" s="18">
-        <v>1771.5859892351921</v>
-      </c>
-      <c r="F11" s="18">
-        <v>1768.8511438526691</v>
-      </c>
-      <c r="H11" s="17">
-        <f>C11/$B11</f>
+      <c r="E11" s="3">
+        <v>1771.5803107002896</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1768.5644353870844</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
         <v>0.20492736735553099</v>
       </c>
-      <c r="I11" s="17">
-        <f>D11/$B11</f>
+      <c r="I11" s="2">
+        <f t="shared" si="1"/>
         <v>0.20495592568920346</v>
       </c>
-      <c r="J11" s="17">
-        <f>E11/$B11</f>
-        <v>0.20509214971465525</v>
-      </c>
-      <c r="K11" s="17">
-        <f>F11/$B11</f>
-        <v>0.20477554339577092</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="16">
+      <c r="J11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.20509149232464571</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="3"/>
+        <v>0.20474235186236217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="14">
         <v>8303</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="3">
         <v>827.94864745336281</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="3">
         <v>822.81167313470053</v>
       </c>
-      <c r="E12" s="18">
-        <v>825.01199973289977</v>
-      </c>
-      <c r="F12" s="18">
-        <v>823.99074005689079</v>
-      </c>
-      <c r="H12" s="17">
-        <f>C12/$B12</f>
+      <c r="E12" s="3">
+        <v>825.02545000999032</v>
+      </c>
+      <c r="F12" s="3">
+        <v>822.63728391987945</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="0"/>
         <v>9.9716806871415486E-2</v>
       </c>
-      <c r="I12" s="17">
-        <f>D12/$B12</f>
+      <c r="I12" s="2">
+        <f t="shared" si="1"/>
         <v>9.9098117925412565E-2</v>
       </c>
-      <c r="J12" s="17">
-        <f>E12/$B12</f>
-        <v>9.9363121731048984E-2</v>
-      </c>
-      <c r="K12" s="17">
-        <f>F12/$B12</f>
-        <v>9.9240122854015511E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="16">
+      <c r="J12" s="2">
+        <f t="shared" si="2"/>
+        <v>9.9364741660844316E-2</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="3"/>
+        <v>9.9077114768141572E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="14">
         <v>9668</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="3">
         <v>1915.983865713285</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="3">
         <v>1927.8564675215248</v>
       </c>
-      <c r="E13" s="18">
-        <v>1925.3016082537777</v>
-      </c>
-      <c r="F13" s="18">
+      <c r="E13" s="3">
+        <v>1925.4797614061331</v>
+      </c>
+      <c r="F13" s="3">
         <v>1932.3806504399047</v>
       </c>
-      <c r="H13" s="17">
-        <f>C13/$B13</f>
+      <c r="H13" s="2">
+        <f t="shared" si="0"/>
         <v>0.19817789260584248</v>
       </c>
-      <c r="I13" s="17">
-        <f>D13/$B13</f>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
         <v>0.19940592340934266</v>
       </c>
-      <c r="J13" s="17">
-        <f>E13/$B13</f>
-        <v>0.19914166407258768</v>
-      </c>
-      <c r="K13" s="17">
-        <f>F13/$B13</f>
+      <c r="J13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.19916009116736999</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="3"/>
         <v>0.19987387778650234</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="16">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="14">
         <v>9301</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="3">
         <v>933.58930023371806</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="3">
         <v>965.04470786897855</v>
       </c>
-      <c r="E14" s="18">
-        <v>915.03909505122499</v>
-      </c>
-      <c r="F14" s="18">
+      <c r="E14" s="3">
+        <v>915.349126005583</v>
+      </c>
+      <c r="F14" s="3">
         <v>966.45516244242469</v>
       </c>
-      <c r="H14" s="17">
-        <f>C14/$B14</f>
+      <c r="H14" s="2">
+        <f t="shared" si="0"/>
         <v>0.1003751532344606</v>
       </c>
-      <c r="I14" s="17">
-        <f>D14/$B14</f>
+      <c r="I14" s="2">
+        <f t="shared" si="1"/>
         <v>0.10375709148145131</v>
       </c>
-      <c r="J14" s="17">
-        <f>E14/$B14</f>
-        <v>9.8380721970887541E-2</v>
-      </c>
-      <c r="K14" s="17">
-        <f>F14/$B14</f>
+      <c r="J14" s="2">
+        <f t="shared" si="2"/>
+        <v>9.8414055048444582E-2</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="3"/>
         <v>0.1039087369575771</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="16">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="14">
         <v>8414</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="3">
         <v>1792.1676580230039</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="3">
         <v>1739.8317430590203</v>
       </c>
-      <c r="E15" s="18">
-        <v>1844.2408529583197</v>
-      </c>
-      <c r="F15" s="18">
-        <v>1741.3947225999195</v>
-      </c>
-      <c r="H15" s="17">
-        <f>C15/$B15</f>
+      <c r="E15" s="3">
+        <v>1844.8657134203488</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1741.0176135873241</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="0"/>
         <v>0.2129982954626817</v>
       </c>
-      <c r="I15" s="17">
-        <f>D15/$B15</f>
+      <c r="I15" s="2">
+        <f t="shared" si="1"/>
         <v>0.20677819622759927</v>
       </c>
-      <c r="J15" s="17">
-        <f>E15/$B15</f>
-        <v>0.21918717054413117</v>
-      </c>
-      <c r="K15" s="17">
-        <f>F15/$B15</f>
-        <v>0.20696395562157352</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="16">
+      <c r="J15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.21926143492041228</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="3"/>
+        <v>0.20691913639022155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="14">
         <v>7735</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="3">
         <v>853.11199589298019</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="3">
         <v>748.90248447221654</v>
       </c>
-      <c r="E16" s="18">
-        <v>786.03867914479122</v>
-      </c>
-      <c r="F16" s="18">
-        <v>743.96338097683019</v>
-      </c>
-      <c r="H16" s="17">
-        <f>C16/$B16</f>
+      <c r="E16" s="3">
+        <v>786.30500254362255</v>
+      </c>
+      <c r="F16" s="3">
+        <v>743.89788160255398</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="0"/>
         <v>0.11029243644382421</v>
       </c>
-      <c r="I16" s="17">
-        <f>D16/$B16</f>
+      <c r="I16" s="2">
+        <f t="shared" si="1"/>
         <v>9.6819972136033161E-2</v>
       </c>
-      <c r="J16" s="17">
-        <f>E16/$B16</f>
-        <v>0.10162103156364463</v>
-      </c>
-      <c r="K16" s="17">
-        <f>F16/$B16</f>
-        <v>9.6181432576190065E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="16">
+      <c r="J16" s="2">
+        <f t="shared" si="2"/>
+        <v>0.10165546251371979</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="3"/>
+        <v>9.6172964654499551E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="14">
         <v>8493</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="3">
         <v>1344.408217363628</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="3">
         <v>1602.8476188393042</v>
       </c>
-      <c r="E17" s="18">
-        <v>1381.765623762019</v>
-      </c>
-      <c r="F17" s="18">
+      <c r="E17" s="3">
+        <v>1382.2337896768427</v>
+      </c>
+      <c r="F17" s="3">
         <v>1547.5790617885698</v>
       </c>
-      <c r="H17" s="17">
-        <f>C17/$B17</f>
+      <c r="H17" s="2">
+        <f t="shared" si="0"/>
         <v>0.15829603407083809</v>
       </c>
-      <c r="I17" s="17">
-        <f>D17/$B17</f>
+      <c r="I17" s="2">
+        <f t="shared" si="1"/>
         <v>0.18872572928756673</v>
       </c>
-      <c r="J17" s="17">
-        <f>E17/$B17</f>
-        <v>0.16269464544472143</v>
-      </c>
-      <c r="K17" s="17">
-        <f>F17/$B17</f>
+      <c r="J17" s="2">
+        <f t="shared" si="2"/>
+        <v>0.16274976918366216</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="3"/>
         <v>0.18221818695261624</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="16">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="14">
         <v>8696</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="3">
         <v>962.25473738547817</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="3">
         <v>908.51012295038959</v>
       </c>
-      <c r="E18" s="18">
-        <v>450.93206830162683</v>
-      </c>
-      <c r="F18" s="18">
+      <c r="E18" s="3">
+        <v>451.08485182775405</v>
+      </c>
+      <c r="F18" s="3">
         <v>1030.2069165059775</v>
       </c>
-      <c r="H18" s="17">
-        <f>C18/$B18</f>
+      <c r="H18" s="2">
+        <f t="shared" si="0"/>
         <v>0.1106548686045858</v>
       </c>
-      <c r="I18" s="17">
-        <f>D18/$B18</f>
+      <c r="I18" s="2">
+        <f t="shared" si="1"/>
         <v>0.1044744851598884</v>
       </c>
-      <c r="J18" s="17">
-        <f>E18/$B18</f>
-        <v>5.1855113650141081E-2</v>
-      </c>
-      <c r="K18" s="17">
-        <f>F18/$B18</f>
+      <c r="J18" s="2">
+        <f t="shared" si="2"/>
+        <v>5.18726830528696E-2</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="3"/>
         <v>0.11846905663592197</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="16">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="14">
         <v>8772</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="3">
         <v>1509.2438907902263</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="3">
         <v>1793.2473462921103</v>
       </c>
-      <c r="E19" s="18">
-        <v>3840.5646391848773</v>
-      </c>
-      <c r="F19" s="18">
-        <v>1763.096258689694</v>
-      </c>
-      <c r="H19" s="17">
-        <f>C19/$B19</f>
+      <c r="E19" s="3">
+        <v>3841.8658884176143</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1762.7144500850181</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="0"/>
         <v>0.17205242713066876</v>
       </c>
-      <c r="I19" s="17">
-        <f>D19/$B19</f>
+      <c r="I19" s="2">
+        <f t="shared" si="1"/>
         <v>0.20442856204880419</v>
       </c>
-      <c r="J19" s="17">
-        <f>E19/$B19</f>
-        <v>0.43782086630014561</v>
-      </c>
-      <c r="K19" s="17">
-        <f>F19/$B19</f>
-        <v>0.20099136555970062</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="C22" s="24" t="s">
+      <c r="J19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.43796920752594781</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="3"/>
+        <v>0.20094783972697425</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="25" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="23" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="16">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>0</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="14">
         <v>10854</v>
       </c>
-      <c r="C25" s="18">
-        <v>1078</v>
-      </c>
-      <c r="D25" s="17">
-        <f>C25/B4</f>
-        <v>9.9318223696333155E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="16">
+      <c r="C25" s="3">
+        <v>1079</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" ref="D25:D40" si="4">C25/B4</f>
+        <v>9.9410355629261107E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>1</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="14">
         <v>10166</v>
       </c>
-      <c r="C26" s="18">
-        <v>2013.1835671987772</v>
-      </c>
-      <c r="D26" s="17">
-        <f>C26/B5</f>
-        <v>0.19803104143210479</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="16">
+      <c r="C26" s="3">
+        <v>2013</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="4"/>
+        <v>0.19801298445799725</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>2</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B27" s="14">
         <v>10066</v>
       </c>
-      <c r="C27" s="18">
-        <v>1005.5911953453136</v>
-      </c>
-      <c r="D27" s="17">
-        <f>C27/B6</f>
-        <v>9.9899780980062941E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="16">
+      <c r="C27" s="3">
+        <v>1006</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="4"/>
+        <v>9.9940393403536665E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>3</v>
       </c>
-      <c r="B28" s="29">
+      <c r="B28" s="14">
         <v>10352</v>
       </c>
-      <c r="C28" s="18">
-        <v>2113.2423926062711</v>
-      </c>
-      <c r="D28" s="17">
-        <f>C28/B7</f>
-        <v>0.20413856188236776</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="16">
+      <c r="C28" s="3">
+        <v>2112</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="4"/>
+        <v>0.20401854714064915</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>4</v>
       </c>
-      <c r="B29" s="29">
+      <c r="B29" s="14">
         <v>9805</v>
       </c>
-      <c r="C29" s="18">
-        <v>1002.5894305830888</v>
-      </c>
-      <c r="D29" s="17">
-        <f>C29/B8</f>
-        <v>0.10225287410332369</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="16">
+      <c r="C29" s="3">
+        <v>1002</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="4"/>
+        <v>0.10219275879653238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>5</v>
       </c>
-      <c r="B30" s="29">
+      <c r="B30" s="14">
         <v>10373</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="3">
         <v>2067</v>
       </c>
-      <c r="D30" s="17">
-        <f>C30/B9</f>
+      <c r="D30" s="2">
+        <f t="shared" si="4"/>
         <v>0.19926732864166585</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="16">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>6</v>
       </c>
-      <c r="B31" s="29">
+      <c r="B31" s="14">
         <v>8396</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="3">
         <v>834</v>
       </c>
-      <c r="D31" s="17">
-        <f>C31/B10</f>
+      <c r="D31" s="2">
+        <f t="shared" si="4"/>
         <v>9.9333015721772278E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="16">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>7</v>
       </c>
-      <c r="B32" s="29">
+      <c r="B32" s="14">
         <v>8638</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="3">
         <v>1766</v>
       </c>
-      <c r="D32" s="17">
-        <f>C32/B11</f>
+      <c r="D32" s="2">
+        <f t="shared" si="4"/>
         <v>0.20444547348923361</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="16">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>8</v>
       </c>
-      <c r="B33" s="29">
+      <c r="B33" s="14">
         <v>8303</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="3">
         <v>819</v>
       </c>
-      <c r="D33" s="17">
-        <f>C33/B12</f>
+      <c r="D33" s="2">
+        <f t="shared" si="4"/>
         <v>9.8639046127905583E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="16">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>9</v>
       </c>
-      <c r="B34" s="29">
+      <c r="B34" s="14">
         <v>9668</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="3">
         <v>1893</v>
       </c>
-      <c r="D34" s="17">
-        <f>C34/B13</f>
+      <c r="D34" s="2">
+        <f t="shared" si="4"/>
         <v>0.19580057923045097</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="16">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <v>10</v>
       </c>
-      <c r="B35" s="29">
+      <c r="B35" s="14">
         <v>9301</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="3">
         <v>880</v>
       </c>
-      <c r="D35" s="17">
-        <f>C35/B14</f>
+      <c r="D35" s="2">
+        <f t="shared" si="4"/>
         <v>9.4613482421245024E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="16">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
         <v>11</v>
       </c>
-      <c r="B36" s="29">
+      <c r="B36" s="14">
         <v>8414</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="3">
         <v>1683</v>
       </c>
-      <c r="D36" s="17">
-        <f>C36/B15</f>
+      <c r="D36" s="2">
+        <f t="shared" si="4"/>
         <v>0.20002376990729737</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="16">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>12</v>
       </c>
-      <c r="B37" s="29">
+      <c r="B37" s="14">
         <v>7735</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="3">
         <v>646</v>
       </c>
-      <c r="D37" s="17">
-        <f>C37/B16</f>
+      <c r="D37" s="2">
+        <f t="shared" si="4"/>
         <v>8.3516483516483511E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="16">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>13</v>
       </c>
-      <c r="B38" s="29">
+      <c r="B38" s="14">
         <v>8493</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="3">
         <v>916</v>
       </c>
-      <c r="D38" s="17">
-        <f>C38/B17</f>
+      <c r="D38" s="2">
+        <f t="shared" si="4"/>
         <v>0.10785352643353349</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="16">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
         <v>14</v>
       </c>
-      <c r="B39" s="29">
+      <c r="B39" s="14">
         <v>8696</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="3">
         <v>180</v>
       </c>
-      <c r="D39" s="17">
-        <f>C39/B18</f>
+      <c r="D39" s="2">
+        <f t="shared" si="4"/>
         <v>2.0699172033118676E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="16">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <v>15</v>
       </c>
-      <c r="B40" s="29">
+      <c r="B40" s="14">
         <v>8772</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="3">
         <v>323</v>
       </c>
-      <c r="D40" s="17">
-        <f>C40/B19</f>
+      <c r="D40" s="2">
+        <f t="shared" si="4"/>
         <v>3.6821705426356592E-2</v>
       </c>
     </row>

--- a/static/output/Excel/frequency1-sol.xlsx
+++ b/static/output/Excel/frequency1-sol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-Tutorials/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F102A5EA-C0C8-CC4E-A278-80AE7D1706BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46241D8-6C01-0C4A-8C4F-8C152BBD89AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="500" windowWidth="23900" windowHeight="25640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11480" yWindow="2640" windowWidth="23900" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LRcounts1" sheetId="3" r:id="rId1"/>
@@ -2593,49 +2593,49 @@
                   <c:v>9.9410355629261107E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19804406704747146</c:v>
+                  <c:v>0.1980665390600343</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9.9940393403536665E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20404072694569139</c:v>
+                  <c:v>0.20406540286995145</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10220095110648901</c:v>
+                  <c:v>0.1022068477878233</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.19937316413147535</c:v>
+                  <c:v>0.19939578695636401</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.9854291137689941E-2</c:v>
+                  <c:v>9.993410336574432E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.20474235186236217</c:v>
+                  <c:v>0.20476711263852196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.9077114768141572E-2</c:v>
+                  <c:v>9.9082831213702816E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.19987387778650234</c:v>
+                  <c:v>0.19989655742724879</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1039087369575771</c:v>
+                  <c:v>0.1039917898511124</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.20691913639022155</c:v>
+                  <c:v>0.20694416041858077</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.6172964654499551E-2</c:v>
+                  <c:v>9.6178513539508945E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.18221818695261624</c:v>
+                  <c:v>0.18223886320637847</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.11846905663592197</c:v>
+                  <c:v>0.11856374740241668</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.20094783972697425</c:v>
+                  <c:v>0.20097214160899332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5610,7 +5610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F314293-315D-4B01-B372-B51468F229F9}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -6294,8 +6294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77028927-E704-4354-9DE7-8E2C04357CB8}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6415,7 +6415,7 @@
         <v>2013.1747088736161</v>
       </c>
       <c r="F5" s="3">
-        <v>2013.315985604595</v>
+        <v>2013.5444360843087</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="K5" s="2">
         <f t="shared" si="3"/>
-        <v>0.19804406704747146</v>
+        <v>0.1980665390600343</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -6487,7 +6487,7 @@
         <v>2113.2330940064994</v>
       </c>
       <c r="F7" s="3">
-        <v>2112.2296053417972</v>
+        <v>2112.4850505097374</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="0"/>
@@ -6503,7 +6503,7 @@
       </c>
       <c r="K7" s="2">
         <f t="shared" si="3"/>
-        <v>0.20404072694569139</v>
+        <v>0.20406540286995145</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -6523,7 +6523,7 @@
         <v>1002.5850190314926</v>
       </c>
       <c r="F8" s="3">
-        <v>1002.0803255991248</v>
+        <v>1002.1381425596074</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="K8" s="2">
         <f t="shared" si="3"/>
-        <v>0.10220095110648901</v>
+        <v>0.1022068477878233</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -6559,7 +6559,7 @@
         <v>2068.2068206967019</v>
       </c>
       <c r="F9" s="3">
-        <v>2068.0978315357938</v>
+        <v>2068.3324980983639</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="0"/>
@@ -6575,7 +6575,7 @@
       </c>
       <c r="K9" s="2">
         <f t="shared" si="3"/>
-        <v>0.19937316413147535</v>
+        <v>0.19939578695636401</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -6595,7 +6595,7 @@
         <v>835.13265189540573</v>
       </c>
       <c r="F10" s="3">
-        <v>838.37662839204472</v>
+        <v>839.04673185878926</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="0"/>
@@ -6611,7 +6611,7 @@
       </c>
       <c r="K10" s="2">
         <f t="shared" si="3"/>
-        <v>9.9854291137689941E-2</v>
+        <v>9.993410336574432E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -6631,7 +6631,7 @@
         <v>1771.5803107002896</v>
       </c>
       <c r="F11" s="3">
-        <v>1768.5644353870844</v>
+        <v>1768.7783189715526</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="0"/>
@@ -6647,7 +6647,7 @@
       </c>
       <c r="K11" s="2">
         <f t="shared" si="3"/>
-        <v>0.20474235186236217</v>
+        <v>0.20476711263852196</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -6667,7 +6667,7 @@
         <v>825.02545000999032</v>
       </c>
       <c r="F12" s="3">
-        <v>822.63728391987945</v>
+        <v>822.68474756737453</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="0"/>
@@ -6683,7 +6683,7 @@
       </c>
       <c r="K12" s="2">
         <f t="shared" si="3"/>
-        <v>9.9077114768141572E-2</v>
+        <v>9.9082831213702816E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -6703,7 +6703,7 @@
         <v>1925.4797614061331</v>
       </c>
       <c r="F13" s="3">
-        <v>1932.3806504399047</v>
+        <v>1932.5999172066413</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="0"/>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="K13" s="2">
         <f t="shared" si="3"/>
-        <v>0.19987387778650234</v>
+        <v>0.19989655742724879</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -6739,7 +6739,7 @@
         <v>915.349126005583</v>
       </c>
       <c r="F14" s="3">
-        <v>966.45516244242469</v>
+        <v>967.22763740519645</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="0"/>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="K14" s="2">
         <f t="shared" si="3"/>
-        <v>0.1039087369575771</v>
+        <v>0.1039917898511124</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -6775,7 +6775,7 @@
         <v>1844.8657134203488</v>
       </c>
       <c r="F15" s="3">
-        <v>1741.0176135873241</v>
+        <v>1741.2281657619385</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="0"/>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="K15" s="2">
         <f t="shared" si="3"/>
-        <v>0.20691913639022155</v>
+        <v>0.20694416041858077</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -6811,7 +6811,7 @@
         <v>786.30500254362255</v>
       </c>
       <c r="F16" s="3">
-        <v>743.89788160255398</v>
+        <v>743.94080222810169</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="0"/>
@@ -6827,7 +6827,7 @@
       </c>
       <c r="K16" s="2">
         <f t="shared" si="3"/>
-        <v>9.6172964654499551E-2</v>
+        <v>9.6178513539508945E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -6847,7 +6847,7 @@
         <v>1382.2337896768427</v>
       </c>
       <c r="F17" s="3">
-        <v>1547.5790617885698</v>
+        <v>1547.7546652117724</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="0"/>
@@ -6863,7 +6863,7 @@
       </c>
       <c r="K17" s="2">
         <f t="shared" si="3"/>
-        <v>0.18221818695261624</v>
+        <v>0.18223886320637847</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -6883,7 +6883,7 @@
         <v>451.08485182775405</v>
       </c>
       <c r="F18" s="3">
-        <v>1030.2069165059775</v>
+        <v>1031.0303474114155</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="0"/>
@@ -6899,7 +6899,7 @@
       </c>
       <c r="K18" s="2">
         <f t="shared" si="3"/>
-        <v>0.11846905663592197</v>
+        <v>0.11856374740241668</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -6919,7 +6919,7 @@
         <v>3841.8658884176143</v>
       </c>
       <c r="F19" s="3">
-        <v>1762.7144500850181</v>
+        <v>1762.9276261940895</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="0"/>
@@ -6935,7 +6935,7 @@
       </c>
       <c r="K19" s="2">
         <f t="shared" si="3"/>
-        <v>0.20094783972697425</v>
+        <v>0.20097214160899332</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
